--- a/rhla_analysis/rhla1_6_normal_result/k6.xlsx
+++ b/rhla_analysis/rhla1_6_normal_result/k6.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.01339711273390293</v>
+        <v>0.01339711273390297</v>
       </c>
       <c r="B2" t="n">
         <v>0.2864880386927519</v>
@@ -466,12 +466,12 @@
         <v>0.1554650373387644</v>
       </c>
       <c r="D2" t="n">
-        <v>21.38431200685212</v>
+        <v>21.38431200685206</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.01161918469396416</v>
+        <v>0.01161918469396414</v>
       </c>
       <c r="B3" t="n">
         <v>0.2860606756156887</v>
@@ -480,26 +480,26 @@
         <v>0.164969450101833</v>
       </c>
       <c r="D3" t="n">
-        <v>24.61968573098671</v>
+        <v>24.61968573098676</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.00728715758064246</v>
+        <v>0.007287157580642447</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2956656427460586</v>
+        <v>0.2956656427460585</v>
       </c>
       <c r="C4" t="n">
         <v>0.1517311608961303</v>
       </c>
       <c r="D4" t="n">
-        <v>40.57352122197304</v>
+        <v>40.5735212219731</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.006700967506320715</v>
+        <v>0.00670096750632067</v>
       </c>
       <c r="B5" t="n">
         <v>0.2756591279685865</v>
@@ -508,12 +508,12 @@
         <v>0.1507128309572301</v>
       </c>
       <c r="D5" t="n">
-        <v>41.1372130529763</v>
+        <v>41.13721305297658</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.01056815523016873</v>
+        <v>0.01056815523016866</v>
       </c>
       <c r="B6" t="n">
         <v>0.2919378398639092</v>
@@ -522,12 +522,12 @@
         <v>0.1442634080108622</v>
       </c>
       <c r="D6" t="n">
-        <v>27.62429520627398</v>
+        <v>27.62429520627416</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.0116800912207661</v>
+        <v>0.01168009122076613</v>
       </c>
       <c r="B7" t="n">
         <v>0.285492385054143</v>
@@ -536,26 +536,26 @@
         <v>0.1463000678886626</v>
       </c>
       <c r="D7" t="n">
-        <v>24.44265028911456</v>
+        <v>24.4426502891145</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.005966206966863702</v>
+        <v>0.005966206966863677</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2816891418058348</v>
+        <v>0.2816891418058349</v>
       </c>
       <c r="C8" t="n">
         <v>0.1622539035980991</v>
       </c>
       <c r="D8" t="n">
-        <v>47.21410828862216</v>
+        <v>47.21410828862238</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.01418507979808938</v>
+        <v>0.01418507979808933</v>
       </c>
       <c r="B9" t="n">
         <v>0.323381939600526</v>
@@ -564,7 +564,7 @@
         <v>0.1575016972165648</v>
       </c>
       <c r="D9" t="n">
-        <v>22.79732960290311</v>
+        <v>22.7973296029032</v>
       </c>
     </row>
     <row r="10">
@@ -578,12 +578,12 @@
         <v>0.1561439239646979</v>
       </c>
       <c r="D10" t="n">
-        <v>25.59196377240902</v>
+        <v>25.59196377240901</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.007670454312978064</v>
+        <v>0.007670454312978066</v>
       </c>
       <c r="B11" t="n">
         <v>0.2915679135603886</v>
@@ -592,7 +592,7 @@
         <v>0.1622539035980991</v>
       </c>
       <c r="D11" t="n">
-        <v>38.01181803104789</v>
+        <v>38.01181803104787</v>
       </c>
     </row>
   </sheetData>
